--- a/models/mini_fixedwing_03/team03.xlsx
+++ b/models/mini_fixedwing_03/team03.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="132">
   <si>
     <t xml:space="preserve">T9: Simulation Model</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rear Landing Gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rear landing gear has trouble staying on the ground with large front wheel</t>
   </si>
   <si>
     <t xml:space="preserve">A full example model is availabe here: https://github.com/jgoppert/fixedwing_gazebo/tree/master/models/miniscout</t>
@@ -578,7 +581,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,13 +597,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF46BDC6"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4285F4"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -659,7 +680,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -728,6 +749,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -736,7 +765,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,6 +778,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,7 +821,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,7 +849,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -837,14 +886,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF4285F4"/>
       <rgbColor rgb="FF46BDC6"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -861,15 +910,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -882,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11024640" y="9712080"/>
-          <a:ext cx="6114600" cy="3790440"/>
+          <a:off x="11026440" y="9716040"/>
+          <a:ext cx="6113520" cy="3789720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,15 +947,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -919,8 +968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11176920" y="3562200"/>
-          <a:ext cx="6229080" cy="2676240"/>
+          <a:off x="11178720" y="3566160"/>
+          <a:ext cx="6228000" cy="2675520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,13 +991,13 @@
   </sheetPr>
   <dimension ref="A1:Z228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F147" activeCellId="0" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.45"/>
@@ -1308,7 +1357,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1407,7 @@
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="17" t="n">
         <v>-0.1829816</v>
       </c>
       <c r="C13" s="11" t="n">
@@ -1404,7 +1453,7 @@
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="17" t="n">
         <v>0.245</v>
       </c>
       <c r="C14" s="6"/>
@@ -1484,27 +1533,27 @@
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="18" t="n">
         <v>0.001</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="19" t="n">
         <v>1.885E-005</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="19" t="n">
         <v>-0.0001281</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="18" t="n">
         <v>0.001</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="19" t="n">
         <v>1.427E-005</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <v>0.012</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1655,7 +1704,7 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="6"/>
@@ -1726,13 +1775,13 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="17" t="n">
         <v>-0.155</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="22" t="n">
         <v>-0.365</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="17" t="n">
         <v>-0.065</v>
       </c>
       <c r="E23" s="11" t="n">
@@ -1904,22 +1953,22 @@
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="18" t="n">
         <v>0.0001489</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="C28" s="19" t="n">
         <v>0.0001362</v>
       </c>
-      <c r="D28" s="17" t="n">
+      <c r="D28" s="19" t="n">
         <v>-0.0002373</v>
       </c>
-      <c r="E28" s="17" t="n">
+      <c r="E28" s="18" t="n">
         <v>0.0006632</v>
       </c>
-      <c r="F28" s="17" t="n">
+      <c r="F28" s="19" t="n">
         <v>6.158E-005</v>
       </c>
-      <c r="G28" s="17" t="n">
+      <c r="G28" s="18" t="n">
         <v>0.0005841</v>
       </c>
       <c r="H28" s="6"/>
@@ -2038,7 +2087,7 @@
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="17" t="n">
         <v>0.0350012</v>
       </c>
       <c r="C32" s="2"/>
@@ -2070,7 +2119,7 @@
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="17" t="n">
         <v>0.0100076</v>
       </c>
       <c r="C33" s="2"/>
@@ -2133,7 +2182,7 @@
       <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="6"/>
@@ -2204,13 +2253,13 @@
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="17" t="n">
         <v>0.155</v>
       </c>
-      <c r="C37" s="11" t="n">
+      <c r="C37" s="22" t="n">
         <v>-0.365</v>
       </c>
-      <c r="D37" s="11" t="n">
+      <c r="D37" s="17" t="n">
         <v>-0.065</v>
       </c>
       <c r="E37" s="11" t="n">
@@ -2402,22 +2451,22 @@
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="17" t="n">
+      <c r="B42" s="18" t="n">
         <v>0.0001489</v>
       </c>
-      <c r="C42" s="17" t="n">
+      <c r="C42" s="19" t="n">
         <v>0.0001362</v>
       </c>
-      <c r="D42" s="17" t="n">
+      <c r="D42" s="19" t="n">
         <v>-0.0002373</v>
       </c>
-      <c r="E42" s="17" t="n">
+      <c r="E42" s="18" t="n">
         <v>0.0006632</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="19" t="n">
         <v>6.158E-005</v>
       </c>
-      <c r="G42" s="17" t="n">
+      <c r="G42" s="18" t="n">
         <v>0.0005841</v>
       </c>
       <c r="H42" s="6"/>
@@ -2540,7 +2589,7 @@
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="11" t="n">
+      <c r="B46" s="17" t="n">
         <v>0.0350012</v>
       </c>
       <c r="C46" s="2"/>
@@ -2572,7 +2621,7 @@
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="11" t="n">
+      <c r="B47" s="17" t="n">
         <v>0.0100076</v>
       </c>
       <c r="C47" s="2"/>
@@ -2636,7 +2685,7 @@
       <c r="C49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="6"/>
@@ -2701,13 +2750,13 @@
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="11" t="n">
+      <c r="B51" s="17" t="n">
         <v>-0.362</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>-0.004</v>
       </c>
-      <c r="D51" s="11" t="n">
+      <c r="D51" s="22" t="n">
         <v>0.054</v>
       </c>
       <c r="E51" s="11" t="n">
@@ -2718,6 +2767,9 @@
       </c>
       <c r="G51" s="11" t="n">
         <v>0</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -2776,7 +2828,7 @@
       <c r="B53" s="11" t="n">
         <v>-0.3448304</v>
       </c>
-      <c r="C53" s="17" t="n">
+      <c r="C53" s="19" t="n">
         <v>7.62E-005</v>
       </c>
       <c r="D53" s="11" t="n">
@@ -2809,7 +2861,7 @@
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="11" t="n">
+      <c r="B54" s="17" t="n">
         <v>0.002</v>
       </c>
       <c r="C54" s="2"/>
@@ -2869,26 +2921,26 @@
       <c r="A56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="17" t="n">
+      <c r="B56" s="18" t="n">
         <v>4.801E-006</v>
       </c>
-      <c r="C56" s="17" t="n">
+      <c r="C56" s="19" t="n">
         <v>2.59E-007</v>
       </c>
-      <c r="D56" s="17" t="n">
+      <c r="D56" s="19" t="n">
         <v>-3.595E-005</v>
       </c>
-      <c r="E56" s="17" t="n">
+      <c r="E56" s="18" t="n">
         <v>0.0002791</v>
       </c>
-      <c r="F56" s="17" t="n">
+      <c r="F56" s="19" t="n">
         <v>3.341E-008</v>
       </c>
-      <c r="G56" s="17" t="n">
+      <c r="G56" s="18" t="n">
         <v>0.0002743</v>
       </c>
-      <c r="K56" s="20" t="s">
-        <v>55</v>
+      <c r="K56" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -2909,15 +2961,15 @@
         <v>35</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
-      <c r="K57" s="20" t="s">
-        <v>57</v>
+      <c r="K57" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -2945,7 +2997,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="24"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -2990,7 +3042,7 @@
       <c r="A60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="17" t="n">
         <v>0.00635</v>
       </c>
       <c r="N60" s="6"/>
@@ -3011,7 +3063,7 @@
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="11" t="n">
+      <c r="B61" s="17" t="n">
         <v>0.008001</v>
       </c>
       <c r="N61" s="6"/>
@@ -3045,14 +3097,14 @@
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>59</v>
+      <c r="D63" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3296,7 +3348,7 @@
       <c r="A70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="17" t="n">
+      <c r="B70" s="19" t="n">
         <v>1E-006</v>
       </c>
       <c r="C70" s="11" t="n">
@@ -3305,13 +3357,13 @@
       <c r="D70" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E70" s="17" t="n">
+      <c r="E70" s="19" t="n">
         <v>1E-006</v>
       </c>
       <c r="F70" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G70" s="17" t="n">
+      <c r="G70" s="19" t="n">
         <v>1E-006</v>
       </c>
       <c r="H70" s="6"/>
@@ -3339,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="6"/>
@@ -3400,7 +3452,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" s="11" t="n">
         <v>-20</v>
@@ -3432,7 +3484,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B74" s="11" t="n">
         <v>20</v>
@@ -3467,7 +3519,7 @@
         <v>40</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3516,13 +3568,13 @@
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="6"/>
@@ -3591,13 +3643,13 @@
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="25" t="n">
         <v>-0.421</v>
       </c>
       <c r="C79" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D79" s="11" t="n">
+      <c r="D79" s="25" t="n">
         <v>0.023</v>
       </c>
       <c r="E79" s="11" t="n">
@@ -3673,13 +3725,13 @@
       <c r="A81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="25" t="n">
         <v>-0.425069</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>0.0009652</v>
       </c>
-      <c r="D81" s="11" t="n">
+      <c r="D81" s="25" t="n">
         <v>-0.0221488</v>
       </c>
       <c r="E81" s="11" t="n">
@@ -3754,7 +3806,7 @@
       <c r="F83" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="25" t="s">
         <v>31</v>
       </c>
       <c r="L83" s="6"/>
@@ -3777,22 +3829,22 @@
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="17" t="n">
+      <c r="B84" s="26" t="n">
         <v>8.003E-006</v>
       </c>
-      <c r="C84" s="17" t="n">
+      <c r="C84" s="19" t="n">
         <v>8.607E-007</v>
       </c>
-      <c r="D84" s="17" t="n">
+      <c r="D84" s="19" t="n">
         <v>1.469E-005</v>
       </c>
-      <c r="E84" s="17" t="n">
+      <c r="E84" s="26" t="n">
         <v>0.0002924</v>
       </c>
-      <c r="F84" s="17" t="n">
+      <c r="F84" s="19" t="n">
         <v>4.851E-008</v>
       </c>
-      <c r="G84" s="17" t="n">
+      <c r="G84" s="19" t="n">
         <v>0.0002989</v>
       </c>
       <c r="L84" s="6"/>
@@ -3816,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="6"/>
@@ -3843,7 +3895,7 @@
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B86" s="25" t="n">
         <v>0.01</v>
       </c>
       <c r="C86" s="2"/>
@@ -3869,7 +3921,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B87" s="11" t="n">
         <v>-20</v>
@@ -3897,7 +3949,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B88" s="11" t="n">
         <v>20</v>
@@ -3924,11 +3976,11 @@
       <c r="Z88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -3965,13 +4017,13 @@
     </row>
     <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F91" s="6"/>
@@ -4031,17 +4083,17 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="11" t="n">
+      <c r="B93" s="22" t="n">
         <v>-0.15</v>
       </c>
-      <c r="C93" s="11" t="n">
+      <c r="C93" s="22" t="n">
         <v>0.2</v>
       </c>
-      <c r="D93" s="11" t="n">
+      <c r="D93" s="22" t="n">
         <v>0.023</v>
       </c>
       <c r="E93" s="11" t="n">
@@ -4111,13 +4163,13 @@
       <c r="A95" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B95" s="11" t="n">
+      <c r="B95" s="25" t="n">
         <v>-0.2760472</v>
       </c>
-      <c r="C95" s="11" t="n">
+      <c r="C95" s="25" t="n">
         <v>0.2265172</v>
       </c>
-      <c r="D95" s="11" t="n">
+      <c r="D95" s="25" t="n">
         <v>-0.0120396</v>
       </c>
       <c r="E95" s="11" t="n">
@@ -4149,7 +4201,7 @@
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="11" t="n">
+      <c r="B96" s="25" t="n">
         <v>0.002</v>
       </c>
       <c r="C96" s="2"/>
@@ -4213,22 +4265,22 @@
       <c r="A98" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="17" t="n">
+      <c r="B98" s="26" t="n">
         <v>0.0001161</v>
       </c>
-      <c r="C98" s="17" t="n">
+      <c r="C98" s="19" t="n">
         <v>0.0001214</v>
       </c>
-      <c r="D98" s="17" t="n">
+      <c r="D98" s="19" t="n">
         <v>-9.261E-006</v>
       </c>
-      <c r="E98" s="17" t="n">
+      <c r="E98" s="26" t="n">
         <v>0.0001481</v>
       </c>
-      <c r="F98" s="17" t="n">
+      <c r="F98" s="19" t="n">
         <v>0.0007802</v>
       </c>
-      <c r="G98" s="17" t="n">
+      <c r="G98" s="26" t="n">
         <v>0.000263</v>
       </c>
       <c r="L98" s="6"/>
@@ -4252,7 +4304,7 @@
         <v>35</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="6"/>
@@ -4305,7 +4357,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B101" s="11" t="n">
         <v>-20</v>
@@ -4333,7 +4385,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B102" s="11" t="n">
         <v>20</v>
@@ -4360,11 +4412,11 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -4401,13 +4453,13 @@
     </row>
     <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F105" s="6"/>
@@ -4467,17 +4519,17 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B107" s="11" t="n">
+      <c r="B107" s="22" t="n">
         <v>-0.15</v>
       </c>
-      <c r="C107" s="11" t="n">
+      <c r="C107" s="22" t="n">
         <v>-0.2</v>
       </c>
-      <c r="D107" s="11" t="n">
+      <c r="D107" s="22" t="n">
         <v>0.023</v>
       </c>
       <c r="E107" s="11" t="n">
@@ -4539,17 +4591,17 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="11" t="n">
+      <c r="B109" s="17" t="n">
         <v>-0.2760472</v>
       </c>
-      <c r="C109" s="11" t="n">
+      <c r="C109" s="17" t="n">
         <v>-0.2265172</v>
       </c>
-      <c r="D109" s="11" t="n">
+      <c r="D109" s="17" t="n">
         <v>-0.0120396</v>
       </c>
       <c r="E109" s="11" t="n">
@@ -4575,7 +4627,7 @@
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -4635,26 +4687,26 @@
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
     </row>
-    <row r="112" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B112" s="17" t="n">
+      <c r="B112" s="18" t="n">
         <v>0.0001161</v>
       </c>
-      <c r="C112" s="17" t="n">
+      <c r="C112" s="19" t="n">
         <v>0.0001214</v>
       </c>
-      <c r="D112" s="17" t="n">
+      <c r="D112" s="19" t="n">
         <v>-9.261E-006</v>
       </c>
-      <c r="E112" s="17" t="n">
+      <c r="E112" s="18" t="n">
         <v>0.0001481</v>
       </c>
-      <c r="F112" s="17" t="n">
+      <c r="F112" s="19" t="n">
         <v>0.0007802</v>
       </c>
-      <c r="G112" s="17" t="n">
+      <c r="G112" s="18" t="n">
         <v>0.000263</v>
       </c>
       <c r="N112" s="6"/>
@@ -4676,7 +4728,7 @@
         <v>35</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="6"/>
@@ -4725,7 +4777,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B115" s="11" t="n">
         <v>-20</v>
@@ -4751,7 +4803,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B116" s="11" t="n">
         <v>20</v>
@@ -4760,8 +4812,8 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="23"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="28"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
@@ -4777,14 +4829,14 @@
       <c r="Z116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
@@ -4817,17 +4869,17 @@
     </row>
     <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I119" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
+      <c r="I119" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J119" s="29"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="30"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
@@ -4842,26 +4894,26 @@
     </row>
     <row r="120" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B120" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="B120" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="26"/>
-      <c r="I120" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="J120" s="24"/>
-      <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="23"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="27"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
@@ -4876,26 +4928,26 @@
     </row>
     <row r="121" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B121" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B121" s="25" t="n">
         <v>4.75</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="26"/>
-      <c r="I121" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="23"/>
-      <c r="N121" s="22"/>
-      <c r="O121" s="22"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="28"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="27"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
@@ -4908,28 +4960,28 @@
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B122" s="11" t="n">
         <v>0.64</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J122" s="24"/>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22"/>
-      <c r="O122" s="22"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
@@ -4942,28 +4994,28 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="B123" s="25" t="n">
         <v>-1.8</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J123" s="24"/>
-      <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="23"/>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J123" s="29"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="28"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
@@ -4976,28 +5028,28 @@
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="B124" s="25" t="n">
         <v>0.34</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="26"/>
-      <c r="I124" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="23"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="27"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
@@ -5010,27 +5062,27 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
     </row>
-    <row r="125" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="B125" s="25" t="n">
         <v>-3.85</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="22"/>
-      <c r="O125" s="22"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
@@ -5043,28 +5095,28 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
     </row>
-    <row r="126" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B126" s="11" t="n">
+        <v>86</v>
+      </c>
+      <c r="B126" s="25" t="n">
         <v>-0.92</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="23"/>
-      <c r="N126" s="22"/>
-      <c r="O126" s="22"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
@@ -5077,28 +5129,28 @@
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B127" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="B127" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="22"/>
-      <c r="O127" s="22"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
@@ -5111,32 +5163,32 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B128" s="22" t="n">
         <v>-0.049999</v>
       </c>
-      <c r="C128" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="11" t="n">
+      <c r="C128" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="22" t="n">
         <v>0.0599948</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="22"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
@@ -5149,28 +5201,28 @@
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B129" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="B129" s="25" t="n">
         <v>0.03</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
@@ -5183,32 +5235,32 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B130" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="B130" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C130" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
+      <c r="C130" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
@@ -5221,32 +5273,32 @@
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B131" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" s="11" t="n">
+        <v>96</v>
+      </c>
+      <c r="B131" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="D131" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="23"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
+      <c r="D131" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="27"/>
+      <c r="O131" s="27"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
@@ -5259,11 +5311,11 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B132" s="11" t="n">
+        <v>98</v>
+      </c>
+      <c r="B132" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C132" s="6"/>
@@ -5272,15 +5324,15 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="22"/>
-      <c r="O132" s="22"/>
+      <c r="I132" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
@@ -5302,7 +5354,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="27"/>
+      <c r="I133" s="32"/>
       <c r="J133" s="13"/>
       <c r="K133" s="6"/>
       <c r="N133" s="6"/>
@@ -5321,10 +5373,10 @@
     </row>
     <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I134" s="28" t="s">
-        <v>72</v>
+        <v>100</v>
+      </c>
+      <c r="I134" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="6"/>
@@ -5344,9 +5396,9 @@
     </row>
     <row r="135" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B135" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="B135" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C135" s="6"/>
@@ -5374,9 +5426,9 @@
     </row>
     <row r="136" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B136" s="25" t="n">
         <v>4.75</v>
       </c>
       <c r="C136" s="6"/>
@@ -5404,7 +5456,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B137" s="11" t="n">
         <v>0.64</v>
@@ -5434,9 +5486,9 @@
     </row>
     <row r="138" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B138" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="B138" s="25" t="n">
         <v>-1.8</v>
       </c>
       <c r="C138" s="6"/>
@@ -5464,9 +5516,9 @@
     </row>
     <row r="139" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B139" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="B139" s="25" t="n">
         <v>0.34</v>
       </c>
       <c r="C139" s="6"/>
@@ -5492,9 +5544,9 @@
     </row>
     <row r="140" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B140" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="B140" s="25" t="n">
         <v>-3.85</v>
       </c>
       <c r="C140" s="6"/>
@@ -5522,9 +5574,9 @@
     </row>
     <row r="141" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B141" s="11" t="n">
+        <v>86</v>
+      </c>
+      <c r="B141" s="25" t="n">
         <v>-0.92</v>
       </c>
       <c r="C141" s="6"/>
@@ -5552,9 +5604,9 @@
     </row>
     <row r="142" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B142" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="B142" s="25" t="n">
         <v>0</v>
       </c>
       <c r="C142" s="6"/>
@@ -5582,15 +5634,15 @@
     </row>
     <row r="143" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B143" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B143" s="22" t="n">
         <v>-0.0249936</v>
       </c>
-      <c r="C143" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="11" t="n">
+      <c r="C143" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="22" t="n">
         <v>0.0024892</v>
       </c>
       <c r="E143" s="6"/>
@@ -5616,9 +5668,9 @@
     </row>
     <row r="144" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B144" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="B144" s="25" t="n">
         <v>0.017</v>
       </c>
       <c r="C144" s="6"/>
@@ -5646,15 +5698,15 @@
     </row>
     <row r="145" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B145" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="B145" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="C145" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" s="11" t="n">
+      <c r="C145" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="25" t="n">
         <v>0</v>
       </c>
       <c r="E145" s="6"/>
@@ -5680,15 +5732,15 @@
     </row>
     <row r="146" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B146" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" s="11" t="n">
+        <v>96</v>
+      </c>
+      <c r="B146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="25" t="n">
         <v>1</v>
       </c>
       <c r="E146" s="6"/>
@@ -5714,9 +5766,9 @@
     </row>
     <row r="147" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B147" s="11" t="n">
+        <v>98</v>
+      </c>
+      <c r="B147" s="25" t="n">
         <v>-4</v>
       </c>
       <c r="C147" s="6"/>
@@ -5761,10 +5813,10 @@
     </row>
     <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J149" s="6"/>
       <c r="L149" s="6"/>
@@ -5785,9 +5837,9 @@
     </row>
     <row r="150" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B150" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="B150" s="17" t="n">
         <v>0.06</v>
       </c>
       <c r="C150" s="6"/>
@@ -5816,9 +5868,9 @@
     </row>
     <row r="151" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B151" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B151" s="17" t="n">
         <v>4.75</v>
       </c>
       <c r="C151" s="6"/>
@@ -5847,7 +5899,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B152" s="11" t="n">
         <v>0.64</v>
@@ -5878,9 +5930,9 @@
     </row>
     <row r="153" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B153" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="B153" s="17" t="n">
         <v>-1.8</v>
       </c>
       <c r="C153" s="6"/>
@@ -5909,9 +5961,9 @@
     </row>
     <row r="154" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="B154" s="17" t="n">
         <v>0.34</v>
       </c>
       <c r="C154" s="6"/>
@@ -5939,9 +5991,9 @@
     </row>
     <row r="155" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="B155" s="17" t="n">
         <v>-3.85</v>
       </c>
       <c r="C155" s="6"/>
@@ -5969,7 +6021,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B156" s="11" t="n">
         <v>-0.92</v>
@@ -5999,9 +6051,9 @@
     </row>
     <row r="157" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B157" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="B157" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C157" s="6"/>
@@ -6029,15 +6081,15 @@
     </row>
     <row r="158" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B158" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B158" s="17" t="n">
         <v>-0.11</v>
       </c>
-      <c r="C158" s="11" t="n">
+      <c r="C158" s="17" t="n">
         <v>0.191</v>
       </c>
-      <c r="D158" s="11" t="n">
+      <c r="D158" s="17" t="n">
         <v>0.01</v>
       </c>
       <c r="E158" s="6"/>
@@ -6063,9 +6115,9 @@
     </row>
     <row r="159" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B159" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="B159" s="17" t="n">
         <v>0.1</v>
       </c>
       <c r="C159" s="6"/>
@@ -6093,15 +6145,15 @@
     </row>
     <row r="160" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B160" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="B160" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C160" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="11" t="n">
+      <c r="C160" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="17" t="n">
         <v>0</v>
       </c>
       <c r="E160" s="6"/>
@@ -6127,15 +6179,15 @@
     </row>
     <row r="161" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B161" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" s="11" t="n">
+        <v>96</v>
+      </c>
+      <c r="B161" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E161" s="6"/>
@@ -6161,9 +6213,9 @@
     </row>
     <row r="162" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B162" s="11" t="n">
+        <v>98</v>
+      </c>
+      <c r="B162" s="17" t="n">
         <v>-2</v>
       </c>
       <c r="C162" s="6"/>
@@ -6173,7 +6225,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
@@ -6210,10 +6262,10 @@
     </row>
     <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J164" s="6"/>
       <c r="L164" s="6"/>
@@ -6234,9 +6286,9 @@
     </row>
     <row r="165" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="B165" s="17" t="n">
         <v>0.06</v>
       </c>
       <c r="C165" s="6"/>
@@ -6265,9 +6317,9 @@
     </row>
     <row r="166" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B166" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B166" s="17" t="n">
         <v>4.75</v>
       </c>
       <c r="C166" s="6"/>
@@ -6296,7 +6348,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B167" s="11" t="n">
         <v>0.64</v>
@@ -6327,9 +6379,9 @@
     </row>
     <row r="168" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B168" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="B168" s="17" t="n">
         <v>-1.8</v>
       </c>
       <c r="C168" s="6"/>
@@ -6358,9 +6410,9 @@
     </row>
     <row r="169" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B169" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="B169" s="17" t="n">
         <v>0.34</v>
       </c>
       <c r="C169" s="6"/>
@@ -6388,9 +6440,9 @@
     </row>
     <row r="170" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B170" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="B170" s="17" t="n">
         <v>-3.85</v>
       </c>
       <c r="C170" s="6"/>
@@ -6418,7 +6470,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B171" s="11" t="n">
         <v>-0.92</v>
@@ -6448,9 +6500,9 @@
     </row>
     <row r="172" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B172" s="11" t="n">
+        <v>88</v>
+      </c>
+      <c r="B172" s="17" t="n">
         <v>0</v>
       </c>
       <c r="C172" s="6"/>
@@ -6478,15 +6530,15 @@
     </row>
     <row r="173" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B173" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="B173" s="17" t="n">
         <v>-0.11</v>
       </c>
-      <c r="C173" s="11" t="n">
+      <c r="C173" s="17" t="n">
         <v>-0.191</v>
       </c>
-      <c r="D173" s="11" t="n">
+      <c r="D173" s="17" t="n">
         <v>0.01</v>
       </c>
       <c r="E173" s="6"/>
@@ -6512,9 +6564,9 @@
     </row>
     <row r="174" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="B174" s="17" t="n">
         <v>0.1</v>
       </c>
       <c r="C174" s="6"/>
@@ -6542,15 +6594,15 @@
     </row>
     <row r="175" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B175" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="B175" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C175" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="11" t="n">
+      <c r="C175" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="17" t="n">
         <v>0</v>
       </c>
       <c r="E175" s="6"/>
@@ -6576,15 +6628,15 @@
     </row>
     <row r="176" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B176" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C176" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" s="11" t="n">
+        <v>96</v>
+      </c>
+      <c r="B176" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" s="17" t="n">
         <v>1</v>
       </c>
       <c r="E176" s="6"/>
@@ -6610,9 +6662,9 @@
     </row>
     <row r="177" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B177" s="11" t="n">
+        <v>98</v>
+      </c>
+      <c r="B177" s="17" t="n">
         <v>-2</v>
       </c>
       <c r="C177" s="6"/>
@@ -6622,7 +6674,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
@@ -6659,7 +6711,7 @@
     </row>
     <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
@@ -6736,7 +6788,7 @@
         <v>-0.2</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
@@ -6796,7 +6848,7 @@
       <c r="A183" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B183" s="29" t="n">
+      <c r="B183" s="34" t="n">
         <v>0.0107442</v>
       </c>
       <c r="C183" s="11" t="n">
@@ -6901,22 +6953,22 @@
       <c r="A186" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B186" s="17" t="n">
+      <c r="B186" s="35" t="n">
         <v>2.491E-009</v>
       </c>
-      <c r="C186" s="17" t="n">
+      <c r="C186" s="19" t="n">
         <v>-1.263E-014</v>
       </c>
-      <c r="D186" s="17" t="n">
+      <c r="D186" s="19" t="n">
         <v>-1.965E-011</v>
       </c>
-      <c r="E186" s="17" t="n">
+      <c r="E186" s="35" t="n">
         <v>3.802E-010</v>
       </c>
-      <c r="F186" s="17" t="n">
+      <c r="F186" s="19" t="n">
         <v>3.402E-011</v>
       </c>
-      <c r="G186" s="17" t="n">
+      <c r="G186" s="35" t="n">
         <v>2.49E-008</v>
       </c>
       <c r="J186" s="6"/>
@@ -6942,7 +6994,7 @@
         <v>35</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="6"/>
@@ -6998,11 +7050,11 @@
       <c r="Z188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -7023,8 +7075,8 @@
       <c r="Z189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="20" t="s">
-        <v>108</v>
+      <c r="A190" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B190" s="11" t="n">
         <v>2</v>
@@ -7048,14 +7100,14 @@
       <c r="Z190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B191" s="29" t="n">
+      <c r="A191" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="34" t="n">
         <v>2.62</v>
       </c>
       <c r="I191" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -7076,28 +7128,28 @@
       <c r="Z191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B192" s="29" t="n">
+      <c r="A192" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B192" s="37" t="n">
         <v>0.1162</v>
       </c>
-      <c r="C192" s="11" t="n">
+      <c r="C192" s="17" t="n">
         <v>0.0067</v>
       </c>
-      <c r="D192" s="11" t="n">
+      <c r="D192" s="17" t="n">
         <v>-0.108</v>
       </c>
-      <c r="E192" s="11" t="n">
+      <c r="E192" s="17" t="n">
         <v>-0.1988</v>
       </c>
-      <c r="F192" s="11" t="n">
+      <c r="F192" s="17" t="n">
         <v>0.1628</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J192" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="J192" s="20"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
@@ -7116,28 +7168,28 @@
       <c r="Z192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B193" s="29" t="n">
+      <c r="A193" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B193" s="37" t="n">
         <v>0.0555</v>
       </c>
-      <c r="C193" s="11" t="n">
+      <c r="C193" s="17" t="n">
         <v>0.0309</v>
       </c>
-      <c r="D193" s="11" t="n">
+      <c r="D193" s="17" t="n">
         <v>0.0176</v>
       </c>
-      <c r="E193" s="11" t="n">
+      <c r="E193" s="17" t="n">
         <v>-0.2001</v>
       </c>
-      <c r="F193" s="11" t="n">
+      <c r="F193" s="17" t="n">
         <v>0.0801</v>
       </c>
       <c r="I193" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J193" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="J193" s="20"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
@@ -7182,19 +7234,19 @@
     </row>
     <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D195" s="19" t="s">
-        <v>59</v>
+      <c r="D195" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
@@ -7440,7 +7492,7 @@
       <c r="A202" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B202" s="17" t="n">
+      <c r="B202" s="19" t="n">
         <v>0</v>
       </c>
       <c r="C202" s="11" t="n">
@@ -7449,13 +7501,13 @@
       <c r="D202" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E202" s="17" t="n">
+      <c r="E202" s="19" t="n">
         <v>0</v>
       </c>
       <c r="F202" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G202" s="17" t="n">
+      <c r="G202" s="19" t="n">
         <v>0</v>
       </c>
       <c r="J202" s="6"/>
@@ -7480,8 +7532,8 @@
       <c r="A203" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B203" s="29" t="s">
-        <v>117</v>
+      <c r="B203" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="6"/>
@@ -7537,7 +7589,7 @@
       <c r="Z204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="20" t="s">
+      <c r="A205" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -7562,10 +7614,10 @@
       <c r="Z205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B206" s="29" t="n">
+      <c r="A206" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="34" t="n">
         <v>2</v>
       </c>
       <c r="J206" s="6"/>
@@ -7587,10 +7639,10 @@
       <c r="Z206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B207" s="29" t="n">
+      <c r="A207" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J207" s="6"/>
@@ -7612,16 +7664,16 @@
       <c r="Z207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B208" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" s="29" t="n">
+      <c r="A208" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B208" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="34" t="n">
         <v>0</v>
       </c>
       <c r="E208" s="11" t="n">
@@ -7650,16 +7702,16 @@
       <c r="Z208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B209" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" s="29" t="n">
+      <c r="A209" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B209" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="34" t="n">
         <v>0</v>
       </c>
       <c r="E209" s="11" t="n">
@@ -7717,10 +7769,10 @@
     </row>
     <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I211" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
@@ -7742,7 +7794,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B212" s="11" t="n">
         <v>0.55</v>
@@ -7774,7 +7826,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B213" s="11" t="n">
         <v>5.73</v>
@@ -7806,7 +7858,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B214" s="11" t="n">
         <v>0.67</v>
@@ -7838,7 +7890,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B215" s="11" t="n">
         <v>0</v>
@@ -7870,7 +7922,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B216" s="11" t="n">
         <v>1.53</v>
@@ -7902,7 +7954,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B217" s="11" t="n">
         <v>-3.82</v>
@@ -7934,7 +7986,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B218" s="11" t="n">
         <v>-0.95</v>
@@ -7966,7 +8018,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B219" s="11" t="n">
         <v>0</v>
@@ -7998,7 +8050,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B220" s="11" t="n">
         <v>0</v>
@@ -8014,7 +8066,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
       <c r="I220" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
@@ -8036,9 +8088,9 @@
     </row>
     <row r="221" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B221" s="17" t="n">
+        <v>92</v>
+      </c>
+      <c r="B221" s="19" t="n">
         <v>0.002</v>
       </c>
       <c r="C221" s="6"/>
@@ -8048,7 +8100,7 @@
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
@@ -8098,7 +8150,7 @@
     </row>
     <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -8108,7 +8160,7 @@
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
       <c r="I223" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
@@ -8129,14 +8181,14 @@
       <c r="Z223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B224" s="11" t="n">
+      <c r="A224" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B224" s="17" t="n">
         <v>1900</v>
       </c>
       <c r="I224" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N224" s="6"/>
       <c r="O224" s="6"/>
@@ -8153,14 +8205,14 @@
       <c r="Z224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B225" s="29" t="n">
+      <c r="A225" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B225" s="37" t="n">
         <v>7.4</v>
       </c>
       <c r="I225" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N225" s="6"/>
       <c r="O225" s="6"/>
@@ -8177,14 +8229,14 @@
       <c r="Z225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B226" s="29" t="n">
+      <c r="A226" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B226" s="37" t="n">
         <v>0.58</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N226" s="6"/>
       <c r="O226" s="6"/>
@@ -8201,14 +8253,14 @@
       <c r="Z226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B227" s="29" t="n">
+      <c r="A227" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B227" s="37" t="n">
         <v>0.128</v>
       </c>
       <c r="I227" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N227" s="6"/>
       <c r="O227" s="6"/>

--- a/models/mini_fixedwing_03/team03.xlsx
+++ b/models/mini_fixedwing_03/team03.xlsx
@@ -991,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:Z228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F147" activeCellId="0" sqref="F147"/>
     </sheetView>
   </sheetViews>
